--- a/biology/Zoologie/Danaus/Danaus.xlsx
+++ b/biology/Zoologie/Danaus/Danaus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danaus est un genre de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Danainae et à la tribu des Danaini.
 Présent sur tous les continents, il comprend une douzaine d'espèces.
@@ -512,7 +524,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En français, les Danaus sont appelés « Monarques » (nom qui désigne aussi plus particulièrement l'espèce Danaus plexippus).
 En anglais, on les appelle tigers, milkweeds, monarchs, wanderers ou queens en fonction des espèces.
@@ -544,21 +558,23 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Danaus a été décrit par l'entomologiste polonais Jan Krzysztof Kluk en 1780[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Danaus a été décrit par l'entomologiste polonais Jan Krzysztof Kluk en 1780.
 L'espèce type pour le genre est Danaus plexippus (Linnaeus, 1758).
-Le nom Danaus Kluk, 1780 a de nombreux synonymes[2] :
-Danaida Latreille, 1804[3]
-Limnas Hübner, [1806][4]
-Danais Latreille, 1807[5]
-Anosia Hübner, 1816[6]
-Festivus Crotch, 1872[7]
-Salatura Moore, [1880][8]
-Nasuma Moore, 1883[9]
+Le nom Danaus Kluk, 1780 a de nombreux synonymes :
+Danaida Latreille, 1804
+Limnas Hübner, 
+Danais Latreille, 1807
+Anosia Hübner, 1816
+Festivus Crotch, 1872
+Salatura Moore, 
+Nasuma Moore, 1883
 Tasitia Moore, 1883
-Danaomorpha Kremky, 1925[10]
-Panlymnas Bryk, 1937[11]
+Danaomorpha Kremky, 1925
+Panlymnas Bryk, 1937
 Diogas d'Almeida, 1938
 </t>
         </is>
@@ -588,24 +604,26 @@
           <t>Liste des espèces et sous-genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En fonction des sources, le genre Danaus compte entre 10 et 13 espèces :
 Danaus affinis (Fabricius, 1775) — Asie du Sud-Est, Océanie.
-Danaus chrysippus (Linnaeus, 1758) — le Petit monarque — Afrique, Europe du Sud, Arabie, Asie du Sud et du Sud-Est. Inclut désormais le taxon dorippus[12].
+Danaus chrysippus (Linnaeus, 1758) — le Petit monarque — Afrique, Europe du Sud, Arabie, Asie du Sud et du Sud-Est. Inclut désormais le taxon dorippus.
 Danaus cleophile (Godart, 1819) — Jamaïque, Haïti, Cuba.
-Danaus eresimus (Cramer, [1777]) — de l'Amérique du Sud au Sud des États-Unis
-Danaus erippus (Cramer, [1775]) — Sud de l'Amérique du Sud.
-Danaus genutia (Cramer, [1779]) — Asie du Sud et du Sud-Est jusqu'en Australie.
-Danaus gilippus (Cramer, [1775]) — Amérique du Sud, moitié sud de l'Amérique du Nord.
-Danaus ismare (Cramer, [1780]) — Indonésie.
-Danaus melanippus (Cramer, [1777]) — Asie du Sud et du Sud-Est.
-Danaus petilia (Stoll, 1790) — Océanie — anciennement considéré comme une sous-espèce de Danaus chrysippus[12].
+Danaus eresimus (Cramer, ) — de l'Amérique du Sud au Sud des États-Unis
+Danaus erippus (Cramer, ) — Sud de l'Amérique du Sud.
+Danaus genutia (Cramer, ) — Asie du Sud et du Sud-Est jusqu'en Australie.
+Danaus gilippus (Cramer, ) — Amérique du Sud, moitié sud de l'Amérique du Nord.
+Danaus ismare (Cramer, ) — Indonésie.
+Danaus melanippus (Cramer, ) — Asie du Sud et du Sud-Est.
+Danaus petilia (Stoll, 1790) — Océanie — anciennement considéré comme une sous-espèce de Danaus chrysippus.
 Danaus plexaure (Godart, 1819) — Amérique du Sud — parfois considéré comme une sous-espèce de Danaus eresimus.
 Danaus plexippus (Linnaeus, 1758) — le Monarque — toute l'Amérique, Nouvelle-Guinée, îles Canaries.
 Certains auteurs considèrent que ces espèces se répartissent en trois sous-genres :
 Danaus s.str., comprenant D. plexippus, D. erippus et D. cleophile ;
-Salatura Moore, [1880], comprenant D. ismare, D. genutia, D. melanippus et D. affinis ;
+Salatura Moore, , comprenant D. ismare, D. genutia, D. melanippus et D. affinis ;
 Anosia Hübner, 1816, comprenant D. eresimus, D. plexaure, D. gilippus, D. chrysippus et D. petilia.
 			Danaus affinis
 			Danaus chrysippus
